--- a/data/trans_orig/IP2907_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2907_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CC60F61-590E-4A52-98A6-D566A2CB6965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0530B381-6596-4F87-B83A-EDC528285EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ED35F770-AE15-4299-BEDC-B9AF9E7A1897}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5A7F869B-1DA1-43B6-A094-A0E7556E9F06}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
   <si>
     <t>Menores según si su lactancia durante los primeros meses de vida fue artificial en 2023 (Tasa respuesta: 95,47%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -74,28 +74,28 @@
     <t>37,66%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
   </si>
   <si>
     <t>17,27%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
   </si>
   <si>
     <t>25,49%</t>
   </si>
   <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,202 +104,202 @@
     <t>62,34%</t>
   </si>
   <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
   </si>
   <si>
     <t>82,73%</t>
   </si>
   <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
   </si>
   <si>
     <t>74,51%</t>
   </si>
   <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>24,89%</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
   </si>
   <si>
     <t>18,9%</t>
   </si>
   <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
   </si>
   <si>
     <t>22,07%</t>
   </si>
   <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
   </si>
   <si>
     <t>75,11%</t>
   </si>
   <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
   </si>
   <si>
     <t>81,1%</t>
   </si>
   <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
   </si>
   <si>
     <t>77,93%</t>
   </si>
   <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>16,98%</t>
   </si>
   <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
   </si>
   <si>
     <t>17,15%</t>
   </si>
   <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
   </si>
   <si>
     <t>17,05%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
   </si>
   <si>
     <t>83,02%</t>
   </si>
   <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
   </si>
   <si>
     <t>82,85%</t>
   </si>
   <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
   </si>
   <si>
     <t>82,95%</t>
   </si>
   <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
   </si>
   <si>
     <t>19,64%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
   </si>
   <si>
     <t>19,71%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
   </si>
   <si>
     <t>80,23%</t>
   </si>
   <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
   </si>
   <si>
     <t>80,36%</t>
   </si>
   <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
   </si>
   <si>
     <t>80,29%</t>
   </si>
   <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,103 +308,97 @@
     <t>17,75%</t>
   </si>
   <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
   </si>
   <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
   </si>
   <si>
     <t>19,23%</t>
   </si>
   <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
+    <t>15,55%</t>
   </si>
   <si>
     <t>82,25%</t>
   </si>
   <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
   </si>
   <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>80,77%</t>
   </si>
   <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
+    <t>84,45%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
   </si>
   <si>
     <t>19,01%</t>
   </si>
   <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
   </si>
   <si>
     <t>80,58%</t>
   </si>
   <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
   </si>
   <si>
     <t>80,99%</t>
   </si>
   <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -819,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08130460-7737-4ABB-933B-57B98149B711}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF51BEC-03A5-4C55-91B9-86068266099D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1599,7 +1593,7 @@
         <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,13 +1608,13 @@
         <v>139281</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>182</v>
@@ -1629,13 +1623,13 @@
         <v>130173</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>370</v>
@@ -1644,13 +1638,13 @@
         <v>269453</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,13 +1712,13 @@
         <v>136321</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>178</v>
@@ -1733,13 +1727,13 @@
         <v>118222</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>357</v>
@@ -1751,10 +1745,10 @@
         <v>95</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1763,13 @@
         <v>565711</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>726</v>
@@ -1784,13 +1778,13 @@
         <v>503628</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>1476</v>
@@ -1799,13 +1793,13 @@
         <v>1069339</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,7 +1855,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2907_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2907_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0530B381-6596-4F87-B83A-EDC528285EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7BFEC7E-2F8B-4EA9-A076-CC9E9058B057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5A7F869B-1DA1-43B6-A094-A0E7556E9F06}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{36986E7F-251B-4B53-9E93-A8BBEB4A5FA1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Menores según si su lactancia durante los primeros meses de vida fue artificial en 2023 (Tasa respuesta: 95,47%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,340 +65,289 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -813,8 +762,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF51BEC-03A5-4C55-91B9-86068266099D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9CC747-3596-4234-A3FF-EC6BCF4ED542}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -931,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7">
-        <v>4075</v>
+        <v>21450</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -946,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="I4" s="7">
-        <v>2762</v>
+        <v>38071</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -961,10 +910,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="N4" s="7">
-        <v>6837</v>
+        <v>59521</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -982,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="D5" s="7">
-        <v>6743</v>
+        <v>91608</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -997,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="I5" s="7">
-        <v>13237</v>
+        <v>97683</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1012,10 +961,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>33</v>
+        <v>273</v>
       </c>
       <c r="N5" s="7">
-        <v>19979</v>
+        <v>189291</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1033,10 +982,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
-        <v>10818</v>
+        <v>113058</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1048,10 +997,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>15999</v>
+        <v>135754</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1063,10 +1012,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>42</v>
+        <v>350</v>
       </c>
       <c r="N6" s="7">
-        <v>26816</v>
+        <v>248812</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1086,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D7" s="7">
-        <v>27877</v>
+        <v>31785</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1101,10 +1050,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="I7" s="7">
-        <v>18830</v>
+        <v>42223</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1116,10 +1065,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="N7" s="7">
-        <v>46708</v>
+        <v>74008</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1137,10 +1086,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="D8" s="7">
-        <v>84129</v>
+        <v>152500</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1152,10 +1101,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="I8" s="7">
-        <v>80783</v>
+        <v>203015</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1167,10 +1116,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>240</v>
+        <v>481</v>
       </c>
       <c r="N8" s="7">
-        <v>164911</v>
+        <v>355515</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1188,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>146</v>
+        <v>267</v>
       </c>
       <c r="D9" s="7">
-        <v>112006</v>
+        <v>184285</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1203,10 +1152,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>320</v>
       </c>
       <c r="I9" s="7">
-        <v>99613</v>
+        <v>245238</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1218,10 +1167,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>308</v>
+        <v>587</v>
       </c>
       <c r="N9" s="7">
-        <v>211619</v>
+        <v>429523</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1241,10 +1190,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>40841</v>
+        <v>30950</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1256,34 +1205,34 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>31913</v>
+        <v>34357</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>85</v>
+      </c>
+      <c r="N10" s="7">
+        <v>65307</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>106</v>
-      </c>
-      <c r="N10" s="7">
-        <v>72754</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1292,49 +1241,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>264</v>
+        <v>175</v>
       </c>
       <c r="D11" s="7">
-        <v>199742</v>
+        <v>128332</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>177</v>
+      </c>
+      <c r="I11" s="7">
+        <v>146799</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>217</v>
-      </c>
-      <c r="I11" s="7">
-        <v>154144</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>352</v>
+      </c>
+      <c r="N11" s="7">
+        <v>275131</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>481</v>
-      </c>
-      <c r="N11" s="7">
-        <v>353887</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1343,10 +1292,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="D12" s="7">
-        <v>240583</v>
+        <v>159282</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1358,10 +1307,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="I12" s="7">
-        <v>186057</v>
+        <v>181156</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1373,10 +1322,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>587</v>
+        <v>437</v>
       </c>
       <c r="N12" s="7">
-        <v>426641</v>
+        <v>340438</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1390,55 +1339,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>48</v>
+      </c>
+      <c r="D13" s="7">
+        <v>33241</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="7">
         <v>41</v>
       </c>
-      <c r="D13" s="7">
-        <v>33463</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>31256</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>44</v>
-      </c>
-      <c r="I13" s="7">
-        <v>30628</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>89</v>
+      </c>
+      <c r="N13" s="7">
+        <v>64497</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>85</v>
-      </c>
-      <c r="N13" s="7">
-        <v>64091</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,49 +1396,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D14" s="7">
-        <v>135817</v>
+        <v>127143</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>188</v>
+      </c>
+      <c r="I14" s="7">
+        <v>143876</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>175</v>
-      </c>
-      <c r="I14" s="7">
-        <v>125291</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>370</v>
+      </c>
+      <c r="N14" s="7">
+        <v>271019</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>352</v>
-      </c>
-      <c r="N14" s="7">
-        <v>261109</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1498,10 +1447,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D15" s="7">
-        <v>169280</v>
+        <v>160384</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1513,10 +1462,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>155919</v>
+        <v>175132</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1528,10 +1477,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="N15" s="7">
-        <v>325200</v>
+        <v>335516</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1545,55 +1494,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="D16" s="7">
-        <v>30064</v>
+        <v>117425</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>179</v>
+      </c>
+      <c r="I16" s="7">
+        <v>145907</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>48</v>
-      </c>
-      <c r="I16" s="7">
-        <v>34088</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>357</v>
+      </c>
+      <c r="N16" s="7">
+        <v>263332</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>89</v>
-      </c>
-      <c r="N16" s="7">
-        <v>64153</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,49 +1551,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>188</v>
+        <v>726</v>
       </c>
       <c r="D17" s="7">
-        <v>139281</v>
+        <v>499584</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>750</v>
+      </c>
+      <c r="I17" s="7">
+        <v>591373</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="7">
-        <v>182</v>
-      </c>
-      <c r="I17" s="7">
-        <v>130173</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1476</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1090957</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M17" s="7">
-        <v>370</v>
-      </c>
-      <c r="N17" s="7">
-        <v>269453</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,10 +1602,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>229</v>
+        <v>904</v>
       </c>
       <c r="D18" s="7">
-        <v>169345</v>
+        <v>617009</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1668,10 +1617,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>230</v>
+        <v>929</v>
       </c>
       <c r="I18" s="7">
-        <v>164261</v>
+        <v>737280</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1683,10 +1632,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>459</v>
+        <v>1833</v>
       </c>
       <c r="N18" s="7">
-        <v>333606</v>
+        <v>1354289</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1699,171 +1648,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>179</v>
-      </c>
-      <c r="D19" s="7">
-        <v>136321</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>178</v>
-      </c>
-      <c r="I19" s="7">
-        <v>118222</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>357</v>
-      </c>
-      <c r="N19" s="7">
-        <v>254543</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>750</v>
-      </c>
-      <c r="D20" s="7">
-        <v>565711</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="7">
-        <v>726</v>
-      </c>
-      <c r="I20" s="7">
-        <v>503628</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1476</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1069339</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>929</v>
-      </c>
-      <c r="D21" s="7">
-        <v>702032</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>904</v>
-      </c>
-      <c r="I21" s="7">
-        <v>621850</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1833</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1323882</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
